--- a/Dokumentation/Zeitplan.xlsx
+++ b/Dokumentation/Zeitplan.xlsx
@@ -408,8 +408,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="85">
+  <cellStyleXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -586,6 +592,9 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -595,11 +604,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="85">
+  <cellStyles count="91">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -642,6 +648,9 @@
     <cellStyle name="Besuchter Link" xfId="80" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="82" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="90" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -684,6 +693,9 @@
     <cellStyle name="Link" xfId="79" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="81" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="89" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -986,7 +998,7 @@
   <dimension ref="A1:CA48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showWhiteSpace="0" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+      <selection activeCell="AR38" sqref="AR38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="11" x14ac:dyDescent="0"/>
@@ -1001,136 +1013,136 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32">
+      <c r="B1" s="33">
         <v>42</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="32">
+      <c r="C1" s="34"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="33">
         <v>43</v>
       </c>
-      <c r="F1" s="33"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="32">
+      <c r="F1" s="34"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="33">
         <v>44</v>
       </c>
-      <c r="I1" s="33"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="32">
+      <c r="I1" s="34"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="33">
         <v>45</v>
       </c>
-      <c r="L1" s="33"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="32">
+      <c r="L1" s="34"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="33">
         <v>46</v>
       </c>
-      <c r="O1" s="33"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="32">
+      <c r="O1" s="34"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="33">
         <v>47</v>
       </c>
-      <c r="R1" s="33"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="32">
+      <c r="R1" s="34"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="33">
         <v>48</v>
       </c>
-      <c r="U1" s="33"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="32">
+      <c r="U1" s="34"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="33">
         <v>49</v>
       </c>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="32">
+      <c r="X1" s="34"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="33">
         <v>50</v>
       </c>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="32">
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="33">
         <v>51</v>
       </c>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="32">
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="35"/>
+      <c r="AF1" s="33">
         <v>52</v>
       </c>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="34"/>
-      <c r="AI1" s="32">
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="35"/>
+      <c r="AI1" s="33">
         <v>1</v>
       </c>
-      <c r="AJ1" s="33"/>
-      <c r="AK1" s="34"/>
-      <c r="AL1" s="32">
+      <c r="AJ1" s="34"/>
+      <c r="AK1" s="35"/>
+      <c r="AL1" s="33">
         <v>2</v>
       </c>
-      <c r="AM1" s="33"/>
-      <c r="AN1" s="34"/>
-      <c r="AO1" s="32">
+      <c r="AM1" s="34"/>
+      <c r="AN1" s="35"/>
+      <c r="AO1" s="33">
         <v>3</v>
       </c>
-      <c r="AP1" s="33"/>
-      <c r="AQ1" s="34"/>
-      <c r="AR1" s="32">
+      <c r="AP1" s="34"/>
+      <c r="AQ1" s="35"/>
+      <c r="AR1" s="33">
         <v>4</v>
       </c>
-      <c r="AS1" s="33"/>
-      <c r="AT1" s="34"/>
-      <c r="AU1" s="32">
+      <c r="AS1" s="34"/>
+      <c r="AT1" s="35"/>
+      <c r="AU1" s="33">
         <v>5</v>
       </c>
-      <c r="AV1" s="33"/>
-      <c r="AW1" s="34"/>
-      <c r="AX1" s="32">
+      <c r="AV1" s="34"/>
+      <c r="AW1" s="35"/>
+      <c r="AX1" s="33">
         <v>6</v>
       </c>
-      <c r="AY1" s="33"/>
-      <c r="AZ1" s="34"/>
-      <c r="BA1" s="32">
+      <c r="AY1" s="34"/>
+      <c r="AZ1" s="35"/>
+      <c r="BA1" s="33">
         <v>7</v>
       </c>
-      <c r="BB1" s="33"/>
-      <c r="BC1" s="34"/>
-      <c r="BD1" s="32">
+      <c r="BB1" s="34"/>
+      <c r="BC1" s="35"/>
+      <c r="BD1" s="33">
         <v>8</v>
       </c>
-      <c r="BE1" s="33"/>
-      <c r="BF1" s="34"/>
-      <c r="BG1" s="32">
+      <c r="BE1" s="34"/>
+      <c r="BF1" s="35"/>
+      <c r="BG1" s="33">
         <v>9</v>
       </c>
-      <c r="BH1" s="33"/>
-      <c r="BI1" s="34"/>
-      <c r="BJ1" s="32">
+      <c r="BH1" s="34"/>
+      <c r="BI1" s="35"/>
+      <c r="BJ1" s="33">
         <v>10</v>
       </c>
-      <c r="BK1" s="33"/>
-      <c r="BL1" s="34"/>
-      <c r="BM1" s="32">
+      <c r="BK1" s="34"/>
+      <c r="BL1" s="35"/>
+      <c r="BM1" s="33">
         <v>11</v>
       </c>
-      <c r="BN1" s="33"/>
-      <c r="BO1" s="34"/>
-      <c r="BP1" s="32">
+      <c r="BN1" s="34"/>
+      <c r="BO1" s="35"/>
+      <c r="BP1" s="33">
         <v>12</v>
       </c>
-      <c r="BQ1" s="33"/>
-      <c r="BR1" s="34"/>
-      <c r="BS1" s="32">
+      <c r="BQ1" s="34"/>
+      <c r="BR1" s="35"/>
+      <c r="BS1" s="33">
         <v>13</v>
       </c>
-      <c r="BT1" s="33"/>
-      <c r="BU1" s="34"/>
-      <c r="BV1" s="32">
+      <c r="BT1" s="34"/>
+      <c r="BU1" s="35"/>
+      <c r="BV1" s="33">
         <v>14</v>
       </c>
-      <c r="BW1" s="33"/>
-      <c r="BX1" s="34"/>
-      <c r="BY1" s="32">
+      <c r="BW1" s="34"/>
+      <c r="BX1" s="35"/>
+      <c r="BY1" s="33">
         <v>15</v>
       </c>
-      <c r="BZ1" s="33"/>
-      <c r="CA1" s="34"/>
+      <c r="BZ1" s="34"/>
+      <c r="CA1" s="35"/>
     </row>
     <row r="2" spans="1:79">
       <c r="A2" s="7" t="s">
@@ -2622,7 +2634,7 @@
       <c r="CA19" s="15"/>
     </row>
     <row r="20" spans="1:79">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="32" t="s">
         <v>38</v>
       </c>
       <c r="B20" s="16"/>
@@ -4384,9 +4396,9 @@
       <c r="AA41" s="27"/>
       <c r="AB41" s="28"/>
       <c r="AC41" s="26"/>
-      <c r="AD41" s="27"/>
-      <c r="AE41" s="28"/>
-      <c r="AF41" s="26"/>
+      <c r="AD41" s="28"/>
+      <c r="AE41" s="15"/>
+      <c r="AF41" s="15"/>
       <c r="AG41" s="27"/>
       <c r="AH41" s="28"/>
       <c r="AI41" s="16"/>
@@ -4469,7 +4481,7 @@
       <c r="AC42" s="16"/>
       <c r="AD42" s="17"/>
       <c r="AE42" s="15"/>
-      <c r="AF42" s="26"/>
+      <c r="AF42" s="15"/>
       <c r="AG42" s="27"/>
       <c r="AH42" s="28"/>
       <c r="AI42" s="26"/>
@@ -5016,20 +5028,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="BV1:BX1"/>
-    <mergeCell ref="BY1:CA1"/>
-    <mergeCell ref="AR1:AT1"/>
-    <mergeCell ref="AU1:AW1"/>
-    <mergeCell ref="AX1:AZ1"/>
-    <mergeCell ref="BA1:BC1"/>
-    <mergeCell ref="BD1:BF1"/>
-    <mergeCell ref="BG1:BI1"/>
-    <mergeCell ref="BS1:BU1"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:P1"/>
     <mergeCell ref="Q1:S1"/>
     <mergeCell ref="T1:V1"/>
     <mergeCell ref="BJ1:BL1"/>
@@ -5042,6 +5040,20 @@
     <mergeCell ref="W1:Y1"/>
     <mergeCell ref="Z1:AB1"/>
     <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="BV1:BX1"/>
+    <mergeCell ref="BY1:CA1"/>
+    <mergeCell ref="AR1:AT1"/>
+    <mergeCell ref="AU1:AW1"/>
+    <mergeCell ref="AX1:AZ1"/>
+    <mergeCell ref="BA1:BC1"/>
+    <mergeCell ref="BD1:BF1"/>
+    <mergeCell ref="BG1:BI1"/>
+    <mergeCell ref="BS1:BU1"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -5078,136 +5090,136 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32">
+      <c r="B1" s="33">
         <v>42</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="32">
+      <c r="C1" s="34"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="33">
         <v>43</v>
       </c>
-      <c r="F1" s="33"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="32">
+      <c r="F1" s="34"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="33">
         <v>44</v>
       </c>
-      <c r="I1" s="33"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="32">
+      <c r="I1" s="34"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="33">
         <v>45</v>
       </c>
-      <c r="L1" s="33"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="32">
+      <c r="L1" s="34"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="33">
         <v>46</v>
       </c>
-      <c r="O1" s="33"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="32">
+      <c r="O1" s="34"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="33">
         <v>47</v>
       </c>
-      <c r="R1" s="33"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="32">
+      <c r="R1" s="34"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="33">
         <v>48</v>
       </c>
-      <c r="U1" s="33"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="32">
+      <c r="U1" s="34"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="33">
         <v>49</v>
       </c>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="32">
+      <c r="X1" s="34"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="33">
         <v>50</v>
       </c>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="32">
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="33">
         <v>51</v>
       </c>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="32">
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="35"/>
+      <c r="AF1" s="33">
         <v>52</v>
       </c>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="34"/>
-      <c r="AI1" s="32">
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="35"/>
+      <c r="AI1" s="33">
         <v>1</v>
       </c>
-      <c r="AJ1" s="33"/>
-      <c r="AK1" s="34"/>
-      <c r="AL1" s="32">
+      <c r="AJ1" s="34"/>
+      <c r="AK1" s="35"/>
+      <c r="AL1" s="33">
         <v>2</v>
       </c>
-      <c r="AM1" s="33"/>
-      <c r="AN1" s="34"/>
-      <c r="AO1" s="32">
+      <c r="AM1" s="34"/>
+      <c r="AN1" s="35"/>
+      <c r="AO1" s="33">
         <v>3</v>
       </c>
-      <c r="AP1" s="33"/>
-      <c r="AQ1" s="34"/>
-      <c r="AR1" s="32">
+      <c r="AP1" s="34"/>
+      <c r="AQ1" s="35"/>
+      <c r="AR1" s="33">
         <v>4</v>
       </c>
-      <c r="AS1" s="33"/>
-      <c r="AT1" s="34"/>
-      <c r="AU1" s="32">
+      <c r="AS1" s="34"/>
+      <c r="AT1" s="35"/>
+      <c r="AU1" s="33">
         <v>5</v>
       </c>
-      <c r="AV1" s="33"/>
-      <c r="AW1" s="34"/>
-      <c r="AX1" s="32">
+      <c r="AV1" s="34"/>
+      <c r="AW1" s="35"/>
+      <c r="AX1" s="33">
         <v>6</v>
       </c>
-      <c r="AY1" s="33"/>
-      <c r="AZ1" s="34"/>
-      <c r="BA1" s="32">
+      <c r="AY1" s="34"/>
+      <c r="AZ1" s="35"/>
+      <c r="BA1" s="33">
         <v>7</v>
       </c>
-      <c r="BB1" s="33"/>
-      <c r="BC1" s="34"/>
-      <c r="BD1" s="32">
+      <c r="BB1" s="34"/>
+      <c r="BC1" s="35"/>
+      <c r="BD1" s="33">
         <v>8</v>
       </c>
-      <c r="BE1" s="33"/>
-      <c r="BF1" s="34"/>
-      <c r="BG1" s="32">
+      <c r="BE1" s="34"/>
+      <c r="BF1" s="35"/>
+      <c r="BG1" s="33">
         <v>9</v>
       </c>
-      <c r="BH1" s="33"/>
-      <c r="BI1" s="34"/>
-      <c r="BJ1" s="32">
+      <c r="BH1" s="34"/>
+      <c r="BI1" s="35"/>
+      <c r="BJ1" s="33">
         <v>10</v>
       </c>
-      <c r="BK1" s="33"/>
-      <c r="BL1" s="34"/>
-      <c r="BM1" s="32">
+      <c r="BK1" s="34"/>
+      <c r="BL1" s="35"/>
+      <c r="BM1" s="33">
         <v>11</v>
       </c>
-      <c r="BN1" s="33"/>
-      <c r="BO1" s="34"/>
-      <c r="BP1" s="32">
+      <c r="BN1" s="34"/>
+      <c r="BO1" s="35"/>
+      <c r="BP1" s="33">
         <v>12</v>
       </c>
-      <c r="BQ1" s="33"/>
-      <c r="BR1" s="34"/>
-      <c r="BS1" s="32">
+      <c r="BQ1" s="34"/>
+      <c r="BR1" s="35"/>
+      <c r="BS1" s="33">
         <v>13</v>
       </c>
-      <c r="BT1" s="33"/>
-      <c r="BU1" s="34"/>
-      <c r="BV1" s="32">
+      <c r="BT1" s="34"/>
+      <c r="BU1" s="35"/>
+      <c r="BV1" s="33">
         <v>14</v>
       </c>
-      <c r="BW1" s="33"/>
-      <c r="BX1" s="34"/>
-      <c r="BY1" s="32">
+      <c r="BW1" s="34"/>
+      <c r="BX1" s="35"/>
+      <c r="BY1" s="33">
         <v>15</v>
       </c>
-      <c r="BZ1" s="33"/>
-      <c r="CA1" s="34"/>
+      <c r="BZ1" s="34"/>
+      <c r="CA1" s="35"/>
     </row>
     <row r="2" spans="1:79">
       <c r="A2" s="1" t="s">
@@ -8396,14 +8408,12 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="BV1:BX1"/>
-    <mergeCell ref="BY1:CA1"/>
-    <mergeCell ref="BD1:BF1"/>
-    <mergeCell ref="BG1:BI1"/>
-    <mergeCell ref="BJ1:BL1"/>
-    <mergeCell ref="BM1:BO1"/>
-    <mergeCell ref="BP1:BR1"/>
-    <mergeCell ref="BS1:BU1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
     <mergeCell ref="BA1:BC1"/>
     <mergeCell ref="T1:V1"/>
     <mergeCell ref="W1:Y1"/>
@@ -8416,12 +8426,14 @@
     <mergeCell ref="AR1:AT1"/>
     <mergeCell ref="AU1:AW1"/>
     <mergeCell ref="AX1:AZ1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="BV1:BX1"/>
+    <mergeCell ref="BY1:CA1"/>
+    <mergeCell ref="BD1:BF1"/>
+    <mergeCell ref="BG1:BI1"/>
+    <mergeCell ref="BJ1:BL1"/>
+    <mergeCell ref="BM1:BO1"/>
+    <mergeCell ref="BP1:BR1"/>
+    <mergeCell ref="BS1:BU1"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
